--- a/META.xlsx
+++ b/META.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.guilherme.ALTERNATIVA1\Desktop\codando\METACRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\codando\METACRM\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F23259-202E-4026-9AC6-868D5A80B347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9DEC29-B86E-45FA-BE33-0B5A661B5DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="1" xr2:uid="{257C1EED-48DA-4880-BC5E-3ED5D6E31011}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="3" xr2:uid="{257C1EED-48DA-4880-BC5E-3ED5D6E31011}"/>
   </bookViews>
   <sheets>
     <sheet name="GERAL" sheetId="1" r:id="rId1"/>
     <sheet name="LOJA" sheetId="4" r:id="rId2"/>
-    <sheet name="RENATO" sheetId="3" r:id="rId3"/>
-    <sheet name="Planilha2" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="ROSE" sheetId="5" r:id="rId3"/>
+    <sheet name="ROBSON" sheetId="6" r:id="rId4"/>
+    <sheet name="DANILIMA" sheetId="7" r:id="rId5"/>
+    <sheet name="Planilha2" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="25">
   <si>
     <t>META OPD</t>
   </si>
@@ -113,57 +115,6 @@
   <si>
     <t>SUPER META DISTRI</t>
   </si>
-  <si>
-    <t>META ROSE</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">META </t>
-  </si>
-  <si>
-    <t>META DESAFIO</t>
-  </si>
-  <si>
-    <t>JAN</t>
-  </si>
-  <si>
-    <t>FEV</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>ABR</t>
-  </si>
-  <si>
-    <t>MAI</t>
-  </si>
-  <si>
-    <t>JUN</t>
-  </si>
-  <si>
-    <t>JUL</t>
-  </si>
-  <si>
-    <t>AGO</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>OUT</t>
-  </si>
-  <si>
-    <t>NOV</t>
-  </si>
-  <si>
-    <t>DEZ</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
 </sst>
 </file>
 
@@ -172,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +142,6 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -267,27 +211,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -303,8 +232,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -622,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CF9279-4921-488B-AC9D-7059E3B403DE}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC18399-F3B6-4F3A-B5A9-26351E5CBADB}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,65 +1258,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853AC282-7279-445B-AFDF-0043A6E7B517}">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285A6C00-FB28-47C5-B409-6AE34642F4F4}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1398,197 +1321,282 @@
         <v>20</v>
       </c>
       <c r="B2" s="12">
-        <v>1183364.8987499918</v>
+        <f>SUM(C2:N2)</f>
+        <v>0</v>
       </c>
       <c r="C2" s="12">
-        <v>72617.031376752391</v>
+        <v>0</v>
       </c>
       <c r="D2" s="12">
-        <v>96572.163374589873</v>
+        <v>0</v>
       </c>
       <c r="E2" s="12">
-        <v>82455.131875912135</v>
+        <v>0</v>
       </c>
       <c r="F2" s="12">
-        <v>102909.85928758518</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
-        <v>103205.28413595329</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12">
-        <v>89280.199685008163</v>
+        <v>0</v>
       </c>
       <c r="I2" s="12">
-        <v>69983.931251604736</v>
+        <v>0</v>
       </c>
       <c r="J2" s="12">
-        <v>94143.723997191613</v>
+        <v>0</v>
       </c>
       <c r="K2" s="12">
-        <v>97194.77299803574</v>
+        <v>0</v>
       </c>
       <c r="L2" s="12">
-        <v>139657.10761030277</v>
+        <v>0</v>
       </c>
       <c r="M2" s="12">
-        <v>141174.84758686664</v>
+        <v>0</v>
       </c>
       <c r="N2" s="12">
-        <v>94170.845570193589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="14">
-        <v>176122.28355677196</v>
-      </c>
-      <c r="G12" s="14">
-        <v>195691.42617419106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="14">
-        <v>88322.823795236691</v>
-      </c>
-      <c r="G13" s="14">
-        <v>98136.470883596325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="14">
-        <v>198688.46287955649</v>
-      </c>
-      <c r="G14" s="14">
-        <v>220764.95875506278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="14">
-        <v>81145.38698416519</v>
-      </c>
-      <c r="G15" s="14">
-        <v>90161.541093516877</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="14">
-        <v>122790.52126920319</v>
-      </c>
-      <c r="G16" s="14">
-        <v>136433.91252133687</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="14">
-        <v>251179.62679272227</v>
-      </c>
-      <c r="G17" s="14">
-        <v>279088.47421413584</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="14">
-        <v>70402.703708181696</v>
-      </c>
-      <c r="G18" s="14">
-        <v>78225.22634242411</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="14">
-        <v>169760.81900633802</v>
-      </c>
-      <c r="G19" s="14">
-        <v>188623.13222926448</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="14">
-        <v>246718.41542328155</v>
-      </c>
-      <c r="G20" s="14">
-        <v>274131.57269253506</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="14">
-        <v>271212.98723126604</v>
-      </c>
-      <c r="G21" s="14">
-        <v>301347.76359029557</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="14">
-        <v>194076.44330633859</v>
-      </c>
-      <c r="G22" s="14">
-        <v>215640.49256259843</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="14">
-        <v>138510.86616970421</v>
-      </c>
-      <c r="G23" s="14">
-        <v>153900.96241078246</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="14">
-        <v>2008931.3401227656</v>
-      </c>
-      <c r="G24" s="14">
-        <v>2232145.9334697402</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12">
+        <f>SUM(C3:N3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12">
+        <f>SUM(C6:N6)</f>
+        <v>600000</v>
+      </c>
+      <c r="C6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="D6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="I6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="J6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="K6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="L6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="M6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12">
+        <f>SUM(C7:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12">
+        <f>SUM(C8:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1597,6 +1605,701 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D0F021-28E9-4611-AF86-604A5838D96B}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="12">
+        <f>SUM(C2:N2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12">
+        <f>SUM(C3:N3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12">
+        <f>SUM(C6:N6)</f>
+        <v>600000</v>
+      </c>
+      <c r="C6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="D6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="I6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="J6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="K6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="L6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="M6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12">
+        <f>SUM(C7:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12">
+        <f>SUM(C8:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE37E722-9ACB-4570-AB84-63AF39ED56E9}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H13:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="12">
+        <f>SUM(C2:N2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12">
+        <f>SUM(C3:N3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12">
+        <f>SUM(C6:N6)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12">
+        <f>SUM(C7:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12">
+        <f>SUM(C8:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B976FC3-FC79-4F3C-924E-6914751F6805}">
   <dimension ref="A1:N8"/>
   <sheetViews>
